--- a/Lancelotti2021_JASREP/Dataset-SM3-KTG-phytoliths.xlsx
+++ b/Lancelotti2021_JASREP/Dataset-SM3-KTG-phytoliths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/papers/AGRIWESTMED/AfrArchBot/JAS-rep-submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/papers/AGRIWESTMED/AfrArchBot/JasRep-Morocco-Phytoliths/first-submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB0994-2F3A-FD4B-B298-EE8BBFD935ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A57C4-DB1A-824F-BC0B-D225BF8F86BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extraction" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Unidentified</t>
+  </si>
+  <si>
+    <t>Arecaceae</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,14 +556,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -576,6 +576,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -603,11 +609,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -1091,45 +1106,45 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="69">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="69" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>445667.64623273886</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>505048.98521928332</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>838068.02879571379</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>589063.48130540492</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>2416331.4729263703</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>946339.83718344779</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>59128.164323952828</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>33483.286620401646</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>495718.82481073105</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1564,7 @@
         <v>5515.9329795111016</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>5385.504077845495</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>7690415.1729293801</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>12408642.753541794</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>1659625.0521929662</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1759,7 +1774,7 @@
         <v>20877386.392426796</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1814,1610 +1829,1632 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:R61"/>
+  <dimension ref="A2:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="40">
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:18" ht="40" x14ac:dyDescent="0.2">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>34</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>12</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>15</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>12</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>11</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>10</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>7</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>2</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="21"/>
-      <c r="B5" s="7" t="s">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
         <v>2</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>1</v>
       </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7" t="s">
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="22"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>1</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>1</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>9</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>21</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>9</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>5</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>7</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>5</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>14</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="24"/>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>7</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="24"/>
-      <c r="B16" s="15" t="s">
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="24"/>
-      <c r="B17" s="15" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="15" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="24"/>
-      <c r="B19" s="15" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>8</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>3</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>1</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>2</v>
       </c>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="24"/>
-      <c r="B20" s="15" t="s">
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="24"/>
-      <c r="B21" s="15" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>5</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
         <v>3</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>5</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>1</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>8</v>
       </c>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="24"/>
-      <c r="B22" s="15" t="s">
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="24"/>
-      <c r="B23" s="15" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="24"/>
-      <c r="B24" s="15" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="24"/>
-      <c r="B26" s="15" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="24"/>
-      <c r="B27" s="15" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="25"/>
-      <c r="B28" s="16" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
         <v>1</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>1</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="6">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="21"/>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>4</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>6</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>7</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
         <v>2</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>2</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>1</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>1</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="21"/>
-      <c r="B32" s="7" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="21"/>
-      <c r="B33" s="7" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="21"/>
-      <c r="B34" s="7" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="22"/>
-      <c r="B35" s="9" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
         <v>2</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
         <v>5</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8">
         <v>1</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>14</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>36</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>22</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>4</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>12</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>9</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>4</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>7</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <v>7</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="4">
         <v>4</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="4">
         <v>2</v>
       </c>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="21"/>
-      <c r="B38" s="7" t="s">
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>3</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <v>3</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="8"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="21"/>
-      <c r="B39" s="7" t="s">
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6">
+        <v>2</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C46" s="17">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D46" s="17">
         <v>15</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E46" s="17">
         <v>12</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F46" s="17">
         <v>30</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G46" s="17">
         <v>13</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H46" s="17">
         <v>178</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I46" s="17">
         <v>3</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J46" s="17">
         <v>27</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K46" s="17">
         <v>26</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L46" s="17">
         <v>4</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7">
+      <c r="M46" s="17"/>
+      <c r="N46" s="17">
         <v>269</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O46" s="17">
         <v>231</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P46" s="17">
         <v>364</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q46" s="17">
         <v>307</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R46" s="18">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="21"/>
-      <c r="B40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="21"/>
-      <c r="B41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="21"/>
-      <c r="B42" s="7" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="21"/>
-      <c r="B43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="21"/>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
         <v>2</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7">
-        <v>1</v>
-      </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="22"/>
-      <c r="B45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6">
+        <v>46</v>
+      </c>
+      <c r="O52" s="6">
+        <v>29</v>
+      </c>
+      <c r="P52" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>39</v>
+      </c>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8">
+        <v>6</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8">
+        <v>143</v>
+      </c>
+      <c r="O54" s="8">
+        <v>90</v>
+      </c>
+      <c r="P54" s="8">
+        <v>95</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>115</v>
+      </c>
+      <c r="R54" s="9"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="17">
+        <v>10</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17">
+        <v>4</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="4">
+        <f>C44+C43+C42+C41+C40+C39+C46+C38+C37+C35+C34+C33+C32+C31+C30+C28+C27+C26+C25+C24+C23+C22+C21+C20+C19+C18+C17+C16+C15+C14+C12+C11+C10+C9+C7+C6+C5+C4+C3</f>
+        <v>46</v>
+      </c>
+      <c r="D60" s="4">
+        <f>D44+D43+D42+D41+D40+D39+D46+D38+D37+D35+D34+D33+D32+D31+D30+D28+D27+D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D16+D15+D14+D12+D11+D10+D9+D7+D6+D5+D4+D3</f>
+        <v>70</v>
+      </c>
+      <c r="E60" s="4">
+        <f>E44+E43+E42+E41+E40+E39+E46+E38+E37+E35+E34+E33+E32+E31+E30+E28+E27+E26+E25+E24+E23+E22+E21+E20+E19+E18+E17+E16+E15+E14+E12+E11+E10+E9+E7+E6+E5+E4+E3</f>
+        <v>66</v>
+      </c>
+      <c r="F60" s="4">
+        <f>F44+F43+F42+F41+F40+F39+F46+F38+F37+F35+F34+F33+F32+F31+F30+F28+F27+F26+F25+F24+F23+F22+F21+F20+F19+F18+F17+F16+F15+F14+F12+F11+F10+F9+F7+F6+F5+F4+F3</f>
+        <v>66</v>
+      </c>
+      <c r="G60" s="4">
+        <f>G44+G43+G42+G41+G40+G39+G46+G38+G37+G35+G34+G33+G32+G31+G30+G28+G27+G26+G25+G24+G23+G22+G21+G20+G19+G18+G17+G16+G15+G14+G12+G11+G10+G9+G7+G6+G5+G4+G3</f>
+        <v>124</v>
+      </c>
+      <c r="H60" s="4">
+        <f>H44+H43+H42+H41+H40+H39+H46+H38+H37+H35+H34+H33+H32+H31+H30+H28+H27+H26+H25+H24+H23+H22+H21+H20+H19+H18+H17+H16+H15+H14+H12+H11+H10+H9+H7+H6+H5+H4+H3</f>
+        <v>196</v>
+      </c>
+      <c r="I60" s="4">
+        <f>I44+I43+I42+I41+I40+I39+I46+I38+I37+I35+I34+I33+I32+I31+I30+I28+I27+I26+I25+I24+I23+I22+I21+I20+I19+I18+I17+I16+I15+I14+I12+I11+I10+I9+I7+I6+I5+I4+I3</f>
+        <v>8</v>
+      </c>
+      <c r="J60" s="4">
+        <f>J44+J43+J42+J41+J40+J39+J46+J38+J37+J35+J34+J33+J32+J31+J30+J28+J27+J26+J25+J24+J23+J22+J21+J20+J19+J18+J17+J16+J15+J14+J12+J11+J10+J9+J7+J6+J5+J4+J3</f>
+        <v>49</v>
+      </c>
+      <c r="K60" s="4">
+        <f>K44+K43+K42+K41+K40+K39+K46+K38+K37+K35+K34+K33+K32+K31+K30+K28+K27+K26+K25+K24+K23+K22+K21+K20+K19+K18+K17+K16+K15+K14+K12+K11+K10+K9+K7+K6+K5+K4+K3</f>
+        <v>69</v>
+      </c>
+      <c r="L60" s="4">
+        <f>L44+L43+L42+L41+L40+L39+L46+L38+L37+L35+L34+L33+L32+L31+L30+L28+L27+L26+L25+L24+L23+L22+L21+L20+L19+L18+L17+L16+L15+L14+L12+L11+L10+L9+L7+L6+L5+L4+L3</f>
+        <v>4</v>
+      </c>
+      <c r="M60" s="4">
+        <f>M44+M43+M42+M41+M40+M39+M46+M38+M37+M35+M34+M33+M32+M31+M30+M28+M27+M26+M25+M24+M23+M22+M21+M20+M19+M18+M17+M16+M15+M14+M12+M11+M10+M9+M7+M6+M5+M4+M3</f>
         <v>3</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9">
-        <v>1</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="27"/>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="27"/>
-      <c r="B49" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="27"/>
-      <c r="B50" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="27"/>
-      <c r="B51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7">
-        <v>2</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7">
-        <v>46</v>
-      </c>
-      <c r="O51" s="7">
-        <v>29</v>
-      </c>
-      <c r="P51" s="7">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>39</v>
-      </c>
-      <c r="R51" s="8"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="27"/>
-      <c r="B52" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="8"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="28"/>
-      <c r="B53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9">
-        <v>6</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9">
-        <v>143</v>
-      </c>
-      <c r="O53" s="9">
-        <v>90</v>
-      </c>
-      <c r="P53" s="9">
-        <v>95</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>115</v>
-      </c>
-      <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="B56" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="18">
-        <v>10</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18">
-        <v>4</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="19"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="B59" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59">
-        <f>C45+C44+C43+C42+C41+C40+C39+C38+C37+C35+C34+C33+C32+C31+C30+C28+C27+C26+C25+C24+C23+C22+C21+C20+C19+C18+C17+C16+C15+C14+C12+C11+C10+C9+C7+C6+C5+C4+C3</f>
-        <v>46</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ref="D59:R59" si="0">D45+D44+D43+D42+D41+D40+D39+D38+D37+D35+D34+D33+D32+D31+D30+D28+D27+D26+D25+D24+D23+D22+D21+D20+D19+D18+D17+D16+D15+D14+D12+D11+D10+D9+D7+D6+D5+D4+D3</f>
+      <c r="N60" s="4">
+        <f>N44+N43+N42+N41+N40+N39+N46+N38+N37+N35+N34+N33+N32+N31+N30+N28+N27+N26+N25+N24+N23+N22+N21+N20+N19+N18+N17+N16+N15+N14+N12+N11+N10+N9+N7+N6+N5+N4+N3</f>
+        <v>303</v>
+      </c>
+      <c r="O60" s="4">
+        <f>O44+O43+O42+O41+O40+O39+O46+O38+O37+O35+O34+O33+O32+O31+O30+O28+O27+O26+O25+O24+O23+O22+O21+O20+O19+O18+O17+O16+O15+O14+O12+O11+O10+O9+O7+O6+O5+O4+O3</f>
+        <v>268</v>
+      </c>
+      <c r="P60" s="4">
+        <f>P44+P43+P42+P41+P40+P39+P46+P38+P37+P35+P34+P33+P32+P31+P30+P28+P27+P26+P25+P24+P23+P22+P21+P20+P19+P18+P17+P16+P15+P14+P12+P11+P10+P9+P7+P6+P5+P4+P3</f>
+        <v>389</v>
+      </c>
+      <c r="Q60" s="4">
+        <f>Q44+Q43+Q42+Q41+Q40+Q39+Q46+Q38+Q37+Q35+Q34+Q33+Q32+Q31+Q30+Q28+Q27+Q26+Q25+Q24+Q23+Q22+Q21+Q20+Q19+Q18+Q17+Q16+Q15+Q14+Q12+Q11+Q10+Q9+Q7+Q6+Q5+Q4+Q3</f>
+        <v>344</v>
+      </c>
+      <c r="R60" s="5">
+        <f>R44+R43+R42+R41+R40+R39+R46+R38+R37+R35+R34+R33+R32+R31+R30+R28+R27+R26+R25+R24+R23+R22+R21+R20+R19+R18+R17+R16+R15+R14+R12+R11+R10+R9+R7+R6+R5+R4+R3</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="6">
+        <f>C60+C57</f>
+        <v>56</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" ref="D61:R61" si="0">D60+D57</f>
         <v>70</v>
       </c>
-      <c r="E59">
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F61" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G59">
+      <c r="G61" s="6">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="H59">
+      <c r="H61" s="6">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="I59">
+      <c r="I61" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J59">
+      <c r="J61" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="K59">
+      <c r="K61" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="L59">
+      <c r="L61" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M59">
+      <c r="M61" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N59">
+      <c r="N61" s="6">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="O59">
+      <c r="O61" s="6">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="P59">
+      <c r="P61" s="6">
         <f t="shared" si="0"/>
         <v>389</v>
       </c>
-      <c r="Q59">
+      <c r="Q61" s="6">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="R59">
+      <c r="R61" s="7">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
-      <c r="B60" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60">
-        <f>C59+C56</f>
-        <v>56</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ref="D60:R60" si="1">D59+D56</f>
-        <v>70</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="1"/>
-        <v>303</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="1"/>
-        <v>389</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="1"/>
-        <v>344</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C61">
+      <c r="C62" s="8">
         <v>300</v>
       </c>
-      <c r="D61">
+      <c r="D62" s="8">
         <v>300</v>
       </c>
-      <c r="E61">
+      <c r="E62" s="8">
         <v>300</v>
       </c>
-      <c r="F61">
+      <c r="F62" s="8">
         <v>300</v>
       </c>
-      <c r="G61">
+      <c r="G62" s="8">
         <v>300</v>
       </c>
-      <c r="H61">
+      <c r="H62" s="8">
         <v>300</v>
       </c>
-      <c r="I61">
+      <c r="I62" s="8">
         <v>300</v>
       </c>
-      <c r="J61">
+      <c r="J62" s="8">
         <v>300</v>
       </c>
-      <c r="K61">
+      <c r="K62" s="8">
         <v>300</v>
       </c>
-      <c r="L61">
+      <c r="L62" s="8">
         <v>300</v>
       </c>
-      <c r="M61">
+      <c r="M62" s="8">
         <v>300</v>
       </c>
-      <c r="N61">
+      <c r="N62" s="8">
         <v>60</v>
       </c>
-      <c r="O61">
+      <c r="O62" s="8">
         <v>60</v>
       </c>
-      <c r="P61">
+      <c r="P62" s="8">
         <v>35</v>
       </c>
-      <c r="Q61">
+      <c r="Q62" s="8">
         <v>30</v>
       </c>
-      <c r="R61">
+      <c r="R62" s="9">
         <v>300</v>
       </c>
     </row>
@@ -3426,8 +3463,8 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A14:A28"/>
     <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A48:A54"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
